--- a/Experiments_Code/Motion_Compensation_Experiment/Motion_Experiment_MidFilt.xlsx
+++ b/Experiments_Code/Motion_Compensation_Experiment/Motion_Experiment_MidFilt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamin\Desktop\LiDAR_Motion_Comp_Feature_Extract_Repo\LiDAR-Motion-Compensation-and-Feature-Extraction\Experiments_Code\Motion_Compensation_Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF12580-EAA8-4EB3-9074-0CD540080DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EE8B6-D845-4782-AEA7-0121C8577064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCD5517C-45B7-4CB8-9FC9-D9F8189C0D88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCD5517C-45B7-4CB8-9FC9-D9F8189C0D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5717,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DEF4C-DA42-4F36-856D-5A5A193755A5}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7074,16 +7074,13 @@
         <v>1.3013274669647217</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="3"/>
-        <v>1351.9442558288574</v>
+        <v>18</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="4"/>
-        <v>449.58041285125307</v>
+        <v>17</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="5"/>
-        <v>266.57111745485122</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
